--- a/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Samtskhe-Javakheti/Ninotsminda.xlsx
+++ b/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Samtskhe-Javakheti/Ninotsminda.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by organizational-legal form\Samtskhe-Javakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of registered entities by organizational-legal form\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B16FF-F186-465F-AADE-9ABB2CB3EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ninotsminda" sheetId="1" r:id="rId1"/>
@@ -77,12 +78,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +126,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -162,17 +182,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -221,39 +230,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,38 +591,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="40.7109375" style="6" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,689 +637,770 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>2010</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>2011</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>2012</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="12">
         <v>2013</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="12">
         <v>2014</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="12">
         <v>2015</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="12">
         <v>2016</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="12">
         <v>2017</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="12">
         <v>2018</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="12">
         <v>2019</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="12">
         <v>2020</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="N3" s="12">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>1028</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1167</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1228</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1325</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1440</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1592</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1688</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1798</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1910</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2025</v>
-      </c>
-      <c r="L4" s="8">
-        <v>2111</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>100</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B4" s="13">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1164</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1225</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1322</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1437</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1588</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1683</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1794</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1908</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2108</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2216</v>
+      </c>
+      <c r="N4" s="14">
+        <v>2366</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>99</v>
+      </c>
+      <c r="C5" s="16">
         <v>103</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="16">
         <v>107</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="16">
         <v>108</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="16">
         <v>115</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="16">
         <v>124</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="16">
         <v>130</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="16">
         <v>142</v>
       </c>
-      <c r="J5" s="9">
-        <v>145</v>
-      </c>
-      <c r="K5" s="9">
-        <v>154</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="J5" s="16">
+        <v>146</v>
+      </c>
+      <c r="K5" s="16">
         <v>155</v>
       </c>
-      <c r="M5" s="9">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="L5" s="16">
+        <v>156</v>
+      </c>
+      <c r="M5" s="16">
+        <v>162</v>
+      </c>
+      <c r="N5" s="16">
+        <v>174</v>
+      </c>
+      <c r="O5" s="16">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>3</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3</v>
-      </c>
-      <c r="J6" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3</v>
-      </c>
-      <c r="L6" s="9">
-        <v>3</v>
-      </c>
-      <c r="M6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16">
+        <v>3</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="16">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="16">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="16">
         <v>5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="16">
         <v>5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="16">
         <v>5</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="16">
         <v>5</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="16">
         <v>5</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="N7" s="16">
+        <v>5</v>
+      </c>
+      <c r="O7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="15">
         <v>26</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="16">
         <v>26</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="16">
         <v>26</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="16">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="16">
         <v>35</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="16">
         <v>56</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="16">
         <v>67</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="16">
         <v>77</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="16">
         <v>87</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="16">
         <v>87</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="16">
         <v>97</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="16">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="N8" s="16">
+        <v>103</v>
+      </c>
+      <c r="O8" s="16">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>800</v>
-      </c>
-      <c r="C9" s="9">
-        <v>936</v>
-      </c>
-      <c r="D9" s="9">
-        <v>990</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1082</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1178</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1295</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1363</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1440</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1537</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1643</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1716</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="15">
+        <v>797</v>
+      </c>
+      <c r="C9" s="16">
+        <v>933</v>
+      </c>
+      <c r="D9" s="16">
+        <v>987</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1079</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1175</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1291</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1358</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1436</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1534</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1639</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1712</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1805</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1938</v>
+      </c>
+      <c r="O9" s="16">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="15">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="16">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="16">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="16">
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="15">
         <v>6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="16">
         <v>6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="16">
         <v>6</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="16">
         <v>6</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="16">
         <v>6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="16">
         <v>6</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="16">
         <v>7</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="16">
         <v>7</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="16">
         <v>7</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="16">
         <v>7</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="16">
         <v>7</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="N12" s="16">
+        <v>7</v>
+      </c>
+      <c r="O12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="15">
         <v>41</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="16">
         <v>41</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="16">
         <v>44</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="16">
         <v>48</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="16">
         <v>51</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="16">
         <v>54</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="16">
         <v>60</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="16">
         <v>65</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="16">
         <v>67</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="16">
         <v>67</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="16">
         <v>68</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="16">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="N13" s="16">
+        <v>76</v>
+      </c>
+      <c r="O13" s="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="15">
         <v>42</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="16">
         <v>42</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="16">
         <v>42</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="16">
         <v>42</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="16">
         <v>42</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="16">
         <v>42</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="16">
         <v>42</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="16">
         <v>42</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="16">
         <v>42</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="16">
         <v>42</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="16">
         <v>42</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="16">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="N14" s="16">
+        <v>42</v>
+      </c>
+      <c r="O14" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="16">
         <v>7</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="16">
         <v>13</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="16">
         <v>13</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="16">
         <v>13</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="16">
         <v>13</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="16">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="N15" s="16">
+        <v>13</v>
+      </c>
+      <c r="O15" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12">
-        <v>3</v>
-      </c>
-      <c r="G16" s="12">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12">
-        <v>3</v>
-      </c>
-      <c r="J16" s="12">
-        <v>3</v>
-      </c>
-      <c r="K16" s="12">
-        <v>3</v>
-      </c>
-      <c r="L16" s="12">
-        <v>3</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="B16" s="17">
+        <v>3</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3</v>
+      </c>
+      <c r="J16" s="18">
+        <v>3</v>
+      </c>
+      <c r="K16" s="18">
+        <v>3</v>
+      </c>
+      <c r="L16" s="18">
+        <v>3</v>
+      </c>
+      <c r="M16" s="18">
+        <v>3</v>
+      </c>
+      <c r="N16" s="18">
+        <v>3</v>
+      </c>
+      <c r="O16" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
